--- a/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
+++ b/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
+++ b/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2132,4 +2133,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
+++ b/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
@@ -2157,12 +2157,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
+++ b/数据整理/stocks/其他/BILI-哔哩哔哩.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,855 +453,293 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8986</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000906</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8986</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.41</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）人民币A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0429</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006310</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0429</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>377016</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根亚太优势混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>38.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0336</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>070012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>33.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0254</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9098</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002892</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9098</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002893</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9098</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>164906</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>25.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.9032</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000041</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>30.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7881</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006309</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）人民币C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003243</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1456</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003244</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.31</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1456</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003245</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>83.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1456</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006792</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1006</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160644</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华香港美国互联网股票（LOF）人民币</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>81.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1006</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0846</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>71.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005698</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏全球科技先锋混合QDII</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>82.12</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002230</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>69.99</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,294 +1365,856 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>164906</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7798</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7881</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006309</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>003243</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>5.71</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1045</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003244</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>77.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1045</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003245</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1045</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>